--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33754.49535845657</v>
+        <v>34030.45973034529</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15387832.6189482</v>
+        <v>15619557.60490265</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21413902.41217352</v>
+        <v>21387697.9103894</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2867430.963019141</v>
+        <v>2866992.028271695</v>
       </c>
     </row>
     <row r="11">
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>59.84024364032008</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>56.37184468858105</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>45.70582857298459</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>30.06347586924085</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>27.52066621168497</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>34.74245926588512</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>52.30405746936195</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>70.90673990138413</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>97.3227064959341</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>47.99559120793559</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>30.71833619036092</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>10.89080423875677</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>5.934500038118173</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>17.4563868068005</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>44.44436225885367</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -11455,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>83.85861781084799</v>
+        <v>48.3432795708057</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>42.22763413854418</v>
       </c>
       <c r="M46" t="n">
-        <v>90.30175956594327</v>
+        <v>42.38384272141673</v>
       </c>
       <c r="N46" t="n">
-        <v>82.99560390240157</v>
+        <v>36.21706801862751</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>46.78920077959938</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>52.55167994450285</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>72.88108513355061</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>408.3496499462784</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>313.8630332531334</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>110.681064734865</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>149.3192393418489</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>218.282426424783</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>253.1406840288995</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25956,13 +25958,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>118.4945968679949</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>83.8929528334216</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>36.33947962914748</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>1.039269594404761</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>126.8086602394841</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>173.7442875975117</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>207.9385235407196</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26035,16 +26037,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>166.2658257867129</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>151.2059250900332</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>122.5706220405871</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>8.462375931250701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>108.917154517939</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>195.4606222432698</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>232.0557416755124</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>282.5677299727997</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>247980.6692805202</v>
+        <v>247220.5763163328</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>41330.11154675335</v>
       </c>
       <c r="D2" t="n">
+        <v>41330.11154675334</v>
+      </c>
+      <c r="E2" t="n">
+        <v>41330.11154675334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>41330.11154675334</v>
+      </c>
+      <c r="G2" t="n">
         <v>41330.11154675335</v>
-      </c>
-      <c r="E2" t="n">
-        <v>41330.11154675335</v>
-      </c>
-      <c r="F2" t="n">
-        <v>41330.11154675335</v>
-      </c>
-      <c r="G2" t="n">
-        <v>41330.11154675334</v>
       </c>
       <c r="H2" t="n">
         <v>41330.11154675334</v>
       </c>
       <c r="I2" t="n">
-        <v>41330.11154675335</v>
+        <v>41330.11154675333</v>
       </c>
       <c r="J2" t="n">
         <v>41330.11154675335</v>
@@ -26341,7 +26343,7 @@
         <v>41330.11154675335</v>
       </c>
       <c r="L2" t="n">
-        <v>41330.11154675335</v>
+        <v>41330.11154675334</v>
       </c>
       <c r="M2" t="n">
         <v>41330.11154675335</v>
@@ -26353,7 +26355,7 @@
         <v>41330.11154675335</v>
       </c>
       <c r="P2" t="n">
-        <v>41330.11154675335</v>
+        <v>44212.60674300545</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>112826.8828350327</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="C4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="D4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="E4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="F4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="G4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="H4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="I4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="J4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="K4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="L4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="M4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="N4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="O4" t="n">
-        <v>26300.98007520667</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="P4" t="n">
-        <v>26300.98007520667</v>
+        <v>10080.23105839451</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3695.484881972477</v>
       </c>
     </row>
     <row r="6">
@@ -26525,22 +26527,22 @@
         <v>-18598.46852845332</v>
       </c>
       <c r="D6" t="n">
-        <v>-18598.46852845332</v>
+        <v>-18598.46852845333</v>
       </c>
       <c r="E6" t="n">
-        <v>15029.13147154668</v>
+        <v>15029.13147154666</v>
       </c>
       <c r="F6" t="n">
-        <v>15029.13147154668</v>
+        <v>15029.13147154666</v>
       </c>
       <c r="G6" t="n">
         <v>15029.13147154667</v>
       </c>
       <c r="H6" t="n">
-        <v>15029.13147154667</v>
+        <v>15029.13147154666</v>
       </c>
       <c r="I6" t="n">
-        <v>15029.13147154668</v>
+        <v>15029.13147154665</v>
       </c>
       <c r="J6" t="n">
         <v>15029.13147154668</v>
@@ -26549,10 +26551,10 @@
         <v>15029.13147154668</v>
       </c>
       <c r="L6" t="n">
-        <v>15029.13147154668</v>
+        <v>15029.13147154666</v>
       </c>
       <c r="M6" t="n">
-        <v>15029.13147154668</v>
+        <v>15029.13147154667</v>
       </c>
       <c r="N6" t="n">
         <v>15029.13147154667</v>
@@ -26561,7 +26563,7 @@
         <v>15029.13147154668</v>
       </c>
       <c r="P6" t="n">
-        <v>15029.13147154668</v>
+        <v>-82389.99203239425</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>169.5176551363521</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>169.5176551363522</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.6814780105984001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.979186676040867</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>26.27268100359485</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>57.83959430202601</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>86.68655849065631</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>107.5423411575071</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>119.6615757284864</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>121.5978251260991</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>114.8213781582113</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>97.99738977156325</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>73.59195851700804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.80789308325178</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>15.52918016651106</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.983169991394498</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.054518240847872</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.3646228808593235</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.521489401983467</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>12.55390181906004</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>34.44886612539776</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>58.87859914297243</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>79.16954261816146</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>86.75305885077071</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>69.62697801251416</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>46.54379089706032</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.63860307651134</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>6.772710089645764</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.46968608556894</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.0239883474249555</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.3056875748360448</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.717840438087746</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.192859068705786</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.61211154090837</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>35.51533824004229</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>45.44740544426071</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>47.91791684452654</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>46.77853588377405</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>43.20754921409843</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>36.97152268744308</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>25.59716592558917</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>13.7448249558098</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.327300736006343</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.306119637935828</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.01667386771832974</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34030.45973034529</v>
+        <v>21810.26677738644</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15619557.60490265</v>
+        <v>15387832.6189482</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21387697.9103894</v>
+        <v>21413902.41217352</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2866992.028271695</v>
+        <v>2867430.963019141</v>
       </c>
     </row>
     <row r="11">
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>59.84024364032008</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>56.37184468858105</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>45.70582857298459</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>30.06347586924085</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N44" t="n">
-        <v>27.52066621168497</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>34.74245926588512</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>52.30405746936195</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
-        <v>70.90673990138413</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
-        <v>97.3227064959341</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>47.99559120793559</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>30.71833619036092</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>10.89080423875677</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>5.934500038118173</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>17.4563868068005</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.44436225885367</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -11457,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>48.3432795708057</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L46" t="n">
-        <v>42.22763413854418</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M46" t="n">
-        <v>42.38384272141673</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N46" t="n">
-        <v>36.21706801862751</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O46" t="n">
-        <v>46.78920077959938</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P46" t="n">
-        <v>52.55167994450285</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.88108513355061</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.3496499462784</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>313.8630332531334</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>110.681064734865</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>149.3192393418489</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>218.282426424783</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25958,13 +25958,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.4945968679949</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>83.8929528334216</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>36.33947962914748</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.039269594404761</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>126.8086602394841</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>173.7442875975117</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26037,16 +26037,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2658257867129</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>151.2059250900332</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>122.5706220405871</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>8.462375931250701</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>108.917154517939</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>195.4606222432698</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>232.0557416755124</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>247220.5763163328</v>
+        <v>247980.6692805202</v>
       </c>
     </row>
   </sheetData>
@@ -26319,22 +26319,22 @@
         <v>41330.11154675335</v>
       </c>
       <c r="D2" t="n">
-        <v>41330.11154675334</v>
+        <v>41330.11154675335</v>
       </c>
       <c r="E2" t="n">
-        <v>41330.11154675334</v>
+        <v>41330.11154675335</v>
       </c>
       <c r="F2" t="n">
-        <v>41330.11154675334</v>
+        <v>41330.11154675335</v>
       </c>
       <c r="G2" t="n">
         <v>41330.11154675335</v>
       </c>
       <c r="H2" t="n">
-        <v>41330.11154675334</v>
+        <v>41330.11154675335</v>
       </c>
       <c r="I2" t="n">
-        <v>41330.11154675333</v>
+        <v>41330.11154675335</v>
       </c>
       <c r="J2" t="n">
         <v>41330.11154675335</v>
@@ -26343,7 +26343,7 @@
         <v>41330.11154675335</v>
       </c>
       <c r="L2" t="n">
-        <v>41330.11154675334</v>
+        <v>41330.11154675335</v>
       </c>
       <c r="M2" t="n">
         <v>41330.11154675335</v>
@@ -26355,7 +26355,7 @@
         <v>41330.11154675335</v>
       </c>
       <c r="P2" t="n">
-        <v>44212.60674300545</v>
+        <v>41330.11154675335</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>112826.8828350327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="C4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="D4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="E4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="F4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="G4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="H4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="I4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="J4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="K4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="L4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="M4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="N4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="O4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="P4" t="n">
-        <v>10080.23105839451</v>
+        <v>26300.98007520667</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3695.484881972477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18598.46852845332</v>
+        <v>-20026.06202259823</v>
       </c>
       <c r="C6" t="n">
-        <v>-18598.46852845332</v>
+        <v>-20026.06202259822</v>
       </c>
       <c r="D6" t="n">
-        <v>-18598.46852845333</v>
+        <v>-20026.06202259822</v>
       </c>
       <c r="E6" t="n">
-        <v>15029.13147154666</v>
+        <v>13601.53797740178</v>
       </c>
       <c r="F6" t="n">
-        <v>15029.13147154666</v>
+        <v>13601.53797740178</v>
       </c>
       <c r="G6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740178</v>
       </c>
       <c r="H6" t="n">
-        <v>15029.13147154666</v>
+        <v>13601.53797740178</v>
       </c>
       <c r="I6" t="n">
-        <v>15029.13147154665</v>
+        <v>13601.53797740177</v>
       </c>
       <c r="J6" t="n">
-        <v>15029.13147154668</v>
+        <v>13601.53797740178</v>
       </c>
       <c r="K6" t="n">
-        <v>15029.13147154668</v>
+        <v>13601.53797740178</v>
       </c>
       <c r="L6" t="n">
-        <v>15029.13147154666</v>
+        <v>13601.53797740178</v>
       </c>
       <c r="M6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740178</v>
       </c>
       <c r="N6" t="n">
-        <v>15029.13147154667</v>
+        <v>13601.53797740178</v>
       </c>
       <c r="O6" t="n">
-        <v>15029.13147154668</v>
+        <v>13601.53797740177</v>
       </c>
       <c r="P6" t="n">
-        <v>-82389.99203239425</v>
+        <v>13601.53797740177</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>169.5176551363521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>169.5176551363522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6814780105984001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.979186676040867</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>26.27268100359485</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>57.83959430202601</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>86.68655849065631</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>107.5423411575071</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>119.6615757284864</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>121.5978251260991</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>114.8213781582113</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>97.99738977156325</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>73.59195851700804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>42.80789308325178</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>15.52918016651106</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.983169991394498</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.054518240847872</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3646228808593235</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.521489401983467</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>12.55390181906004</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.44886612539776</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>58.87859914297243</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>79.16954261816146</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>86.75305885077071</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>69.62697801251416</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.54379089706032</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.63860307651134</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>6.772710089645764</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.46968608556894</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0239883474249555</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3056875748360448</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.717840438087746</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.192859068705786</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>21.61211154090837</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>35.51533824004229</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>45.44740544426071</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>47.91791684452654</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>46.77853588377405</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>43.20754921409843</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>36.97152268744308</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.59716592558917</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>13.7448249558098</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.327300736006343</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.306119637935828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01667386771832974</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
